--- a/Task1/System Tests.xlsx
+++ b/Task1/System Tests.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A7AA3A-4EAB-4D0F-AD31-8809E44CD3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5B6E3-7BCA-470A-857C-06E08373D5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
   <si>
     <t>Project name</t>
   </si>
@@ -229,9 +229,6 @@
   <si>
     <t>1. Login is incomplete
 2. Warning is visible</t>
-  </si>
-  <si>
-    <t>1. User is not logged in</t>
   </si>
   <si>
     <t>1) Visit https://demoqa.com/login
@@ -289,12 +286,6 @@
     <t>1. Registration is incomplete
 2. Warning is visible
 3. All popups, requests and responses are visible</t>
-  </si>
-  <si>
-    <t>1. Popup with message "User Register Successfully." is visible on top of the screen
-2. Click "OK"
-3. Registration page with empty data is visible
-4. All popups, requests and responses are visible</t>
   </si>
   <si>
     <t>As logged in user delete and add a book again</t>
@@ -350,15 +341,6 @@
 Book: "Git Pocket Guide"
 userId (changed): eead58cc-a793-4c6e-863a-681907820a96
 BookIsbn: 9781449325862</t>
-  </si>
-  <si>
-    <t>1. Navigate to the page page of one of book that was already added
-2. Click on button to add book to your collection
-3. Popup with message that book is in user's collection is visible
-4. Click OK on the pop-up
-5. Message Books, request method: POST with the response status code equal 400 Bad Request is visible; Payload contains userId and bookId (isbn)
-6. Click on the Profile section
-7. Only one position of the previously added book is visible</t>
   </si>
   <si>
     <t xml:space="preserve">UserName: b
@@ -402,15 +384,6 @@
 3) User with test data credentials in not created</t>
   </si>
   <si>
-    <t>1. Enter First Name
-2. Enter Last Name
-3. Enter UserName
-4. Enter Password
-5. Verify reCaptcha
-6. Click on register button
-7. In Network in dev tools check message User, request method: POST with status code 201 Created is visible; Payload contains provided userName and password</t>
-  </si>
-  <si>
     <t>Passed
 note: user credentials shouldn't be visible in the payload</t>
   </si>
@@ -464,6 +437,30 @@
 9. User is redirected to https://demoqa.com/login
 10. In dev tools check message with userId, request method: DELETE; Status Code: 204 No Content, Request Url contains userId
 11. Repeat test case LeapDev_SystemTests_01_001 with credentials of the deleted account</t>
+  </si>
+  <si>
+    <t>1. Enter First Name
+2. Enter Last Name
+3. Enter UserName
+4. Enter Password
+5. Verify reCaptcha
+6. Click on register button
+7. In Network in dev tools check message User, request method: POST with status code 201 Created is visible; Payload contains provided userName and password
+8. Popup with message "User Register Successfully." is visible on top of the screen
+9. Click "OK"</t>
+  </si>
+  <si>
+    <t>1. Registration page with empty data is visible
+2. All popups, requests and responses are visible</t>
+  </si>
+  <si>
+    <t>1. Navigate to the page page of one of book that was already added
+2. Click on button to add book to your collection
+3. Popup with message that book is in user's collection is visible
+4. Click OK on the pop-up
+5. Message Books, request method: POST with the response status code equal 400 Bad Request is visible; Payload contains userId and bookId (isbn)
+6. Click on the Profile section
+7. Only one position with the previously added book is visible in the table</t>
   </si>
 </sst>
 </file>
@@ -931,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,12 +1038,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="2:14" ht="143.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>27</v>
@@ -1055,25 +1052,25 @@
         <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L13" s="19" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="M13" s="6" t="s">
         <v>5</v>
@@ -1098,19 +1095,19 @@
         <v>35</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>5</v>
@@ -1161,23 +1158,23 @@
         <v>39</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F16" s="11" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="J16" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K16" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="L16" s="14" t="s">
         <v>25</v>
@@ -1199,22 +1196,22 @@
         <v>56</v>
       </c>
       <c r="F17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="H17" s="11" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J17" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>58</v>
+      <c r="J17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L17" s="14" t="s">
         <v>25</v>
@@ -1242,10 +1239,10 @@
         <v>28</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J18" s="11" t="s">
         <v>55</v>
@@ -1279,10 +1276,10 @@
         <v>42</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="11" t="s">
         <v>43</v>
@@ -1304,7 +1301,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="10"/>
       <c r="D20" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>46</v>
@@ -1313,13 +1310,13 @@
         <v>47</v>
       </c>
       <c r="G20" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H20" s="11" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J20" s="11" t="s">
         <v>48</v>
@@ -1341,19 +1338,19 @@
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>50</v>
       </c>
       <c r="G21" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I21" s="16" t="s">
         <v>51</v>
@@ -1378,28 +1375,28 @@
       <c r="B22" s="9"/>
       <c r="C22" s="10"/>
       <c r="D22" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I22" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G22" s="11" t="s">
+      <c r="J22" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="H22" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="K22" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L22" s="17" t="s">
         <v>25</v>
@@ -1415,28 +1412,28 @@
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G23" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H23" s="11" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J23" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K23" s="11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L23" s="17" t="s">
         <v>25</v>

--- a/Task1/System Tests.xlsx
+++ b/Task1/System Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bogus\Documents\Testing\LeapDev QA Task\LeapDev-Quality-Engineer-Task\Task1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC5B6E3-7BCA-470A-857C-06E08373D5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570F75DE-DB80-49A4-B346-8D7A75C1FA3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,20 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>Project name</t>
   </si>
   <si>
-    <t>LeapDev Task</t>
-  </si>
-  <si>
-    <t>Module name</t>
-  </si>
-  <si>
-    <t>Registration &amp; Login</t>
-  </si>
-  <si>
     <t>Created by</t>
   </si>
   <si>
@@ -103,12 +94,6 @@
   </si>
   <si>
     <t>Passed</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_001</t>
   </si>
   <si>
     <t>Fist Name: b
@@ -117,9 +102,6 @@
 Passoword: Mypassword1!</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_002</t>
-  </si>
-  <si>
     <t xml:space="preserve">1) Visit https://demoqa.com/login
 2) User is not logged in
 </t>
@@ -128,9 +110,6 @@
     <t>Login as a previously created user</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_003</t>
-  </si>
-  <si>
     <t>Verify that user remains logged</t>
   </si>
   <si>
@@ -151,9 +130,6 @@
   <si>
     <t>Failed
 not sure if it is an actual fail but I would rather expect user to remain logged in after closing and opening the browser</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_004</t>
   </si>
   <si>
     <t>1) Visit https://demoqa.com/login
@@ -176,9 +152,6 @@
 2. All popup and requests are visible</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_005</t>
-  </si>
-  <si>
     <t>As logged in user add to your collection some books</t>
   </si>
   <si>
@@ -195,9 +168,6 @@
 3. Book is not added</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_006</t>
-  </si>
-  <si>
     <t>1) Visit https://demoqa.com/profile
 2) User is logged in
 3) Book already added to collection</t>
@@ -211,9 +181,6 @@
     <t>Try to register an already registered user</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_007</t>
-  </si>
-  <si>
     <t>1) User with UserName 'b' is registered
 2) Visit https://demoqa.com/register
 3) User is not logged in</t>
@@ -238,9 +205,6 @@
   <si>
     <t>UserName: b
 Invalid password: Mypassword1</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_008</t>
   </si>
   <si>
     <t>1. User is registered
@@ -315,12 +279,6 @@
     <t>UserName: z
 Passoword: Mypassword1!
 userId (changed): e2841c5c-5803-4d01-836d-6bf034008301</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_009</t>
-  </si>
-  <si>
-    <t>LeapDev_SystemTests_01_010</t>
   </si>
   <si>
     <t>1. Click on trash icon next to the chosen book
@@ -398,9 +356,6 @@
     <t>1. User is redirected to login page with empty credentials</t>
   </si>
   <si>
-    <t>LeapDev_SystemTests_01_011</t>
-  </si>
-  <si>
     <t>1. Type Username and Invalid passoword
 2 .Click on login button
 3. Login is incomplete and a message with invalid data should be visible
@@ -461,6 +416,45 @@
 5. Message Books, request method: POST with the response status code equal 400 Bad Request is visible; Payload contains userId and bookId (isbn)
 6. Click on the Profile section
 7. Only one position with the previously added book is visible in the table</t>
+  </si>
+  <si>
+    <t>System Test Cases</t>
+  </si>
+  <si>
+    <t>SystemTests_01</t>
+  </si>
+  <si>
+    <t>SystemTests_01_001</t>
+  </si>
+  <si>
+    <t>SystemTests_01_002</t>
+  </si>
+  <si>
+    <t>SystemTests_01_003</t>
+  </si>
+  <si>
+    <t>SystemTests_01_004</t>
+  </si>
+  <si>
+    <t>SystemTests_01_005</t>
+  </si>
+  <si>
+    <t>SystemTests_01_006</t>
+  </si>
+  <si>
+    <t>SystemTests_01_007</t>
+  </si>
+  <si>
+    <t>SystemTests_01_008</t>
+  </si>
+  <si>
+    <t>SystemTests_01_009</t>
+  </si>
+  <si>
+    <t>SystemTests_01_010</t>
+  </si>
+  <si>
+    <t>SystemTests_01_011</t>
   </si>
 </sst>
 </file>
@@ -588,13 +582,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -926,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N23"/>
+  <dimension ref="B3:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,494 +945,486 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>45097</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4">
-        <v>45097</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
+        <v>84</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>18</v>
+        <v>85</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>70</v>
       </c>
       <c r="M12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="N12" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N12" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="2:14" ht="161.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="M15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N15" s="12">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="102" x14ac:dyDescent="0.25">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N16" s="12">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="153" x14ac:dyDescent="0.25">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N18" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="I19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N19" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M20" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N20" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21" s="7">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L13" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" ht="150" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="J14" s="11" t="s">
+      <c r="E22" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="K14" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" ht="87.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="I15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="L15" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="K16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="13">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="102" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L17" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="13">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="153" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="11" t="s">
+      <c r="H22" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="K18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="L18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="207.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="200.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="J21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="K21" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="285.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L22" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M22" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="8">
-        <v>45097</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="189.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="L23" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="8">
+      <c r="J22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="7">
         <v>45097</v>
       </c>
     </row>
